--- a/biology/Botanique/Magnistipula/Magnistipula.xlsx
+++ b/biology/Botanique/Magnistipula/Magnistipula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnistipula est un genre de plantes à fleurs de la famille des Chrysobalanaceae, décrit en 1905, que l'on rencontre en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnistipula est un genre de plantes à fleurs de la famille des Chrysobalanaceae, décrit en 1905, que l'on rencontre en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 sous-genre Magnistipula (Magnistipula subgen. Magnistipula)
 Magnistipula bimarsupiata Letouzey
 Magnistipula butayei De Wild.
@@ -582,7 +600,7 @@
 sous-genre Magnistipula (Magnistipula subgen. Tolmiella) F.White
 Magnistipula cerebriformis (Capuron) F.White
 Magnistipula tamenaka (Capuron) F.White
-Selon BioLib                    (24 juillet 2017)[3] :
+Selon BioLib                    (24 juillet 2017) :
 Magnistipula bimarsupiata Letouzey
 Magnistipula butayei De Wild.
 Magnistipula cerebriformis (Capuron) F.White
@@ -596,7 +614,7 @@
 Magnistipula tamenaka (Capuron) F.White
 Magnistipula tessmannii (Engl.) Prance
 Magnistipula zenkeri Engl.
-Selon Catalogue of Life                                   (24 juillet 2017)[4] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Magnistipula bimarsupiata Letouzey
 Magnistipula butayei De Wild.
 Magnistipula cerebriformis (Capuron) F.White
@@ -609,7 +627,7 @@
 Magnistipula tamenaka (Capuron) F.White
 Magnistipula tessmannii (Engl.) Prance
 Magnistipula zenkeri Engl.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Magnistipula bimarsupiata Letouzey, Adansonia, n.s. (1976)
 Magnistipula butayei De Wild., Ann. Mus. Congo Belge, Bot., sér. 5 (1908)
 sous-espèce Magnistipula butayei subsp. balingenbaensis Sothers, Prance &amp; B.J.Pollard (2004)
@@ -636,13 +654,13 @@
 Magnistipula tamenaka (Capuron) F.White (1979)
 Magnistipula tessmannii (Engl.) Prance, Bol. Soc. Brot., sér. 2 (1966)
 Magnistipula zenkeri Engl. (1905)
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Magnistipula bimarsupiata
 Magnistipula butayei
 Magnistipula conrauana
 Magnistipula glaberrima
 Magnistipula tamenaka
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Magnistipula bimarsupiata Letouzey
 Magnistipula butayei De Wild.
 Magnistipula cerebriformis (Capuron) F.White
@@ -656,7 +674,7 @@
 Magnistipula tamenaka (Capuron) F.White
 Magnistipula tessmannii (Engl.) Prance
 Magnistipula zenkeri Engl.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Magnistipula bangweolensis (R.E. Fr.) R.A. Graham
 Magnistipula bimarsupiata Letouzey
 Magnistipula butayei De Wild.
